--- a/src/tutorials/simulations/inputs/example_03.xlsx
+++ b/src/tutorials/simulations/inputs/example_03.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egu\SpyderProjects\cybersec\workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egu\SpyderProjects\_datafev\datafev\src\tutorials\simulations\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cluster1" sheetId="9" r:id="rId1"/>
@@ -40,9 +40,6 @@
     <t>TimeStep</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Reservation Time</t>
   </si>
   <si>
@@ -70,12 +67,6 @@
     <t>cu_id</t>
   </si>
   <si>
-    <t>cu_p_ch_max</t>
-  </si>
-  <si>
-    <t>cu_p_ds_max</t>
-  </si>
-  <si>
     <t>cu_eff</t>
   </si>
   <si>
@@ -97,24 +88,12 @@
     <t>CC02_03</t>
   </si>
   <si>
-    <t>LB</t>
-  </si>
-  <si>
-    <t>UB</t>
-  </si>
-  <si>
     <t>V2G Allowance (kWh)</t>
   </si>
   <si>
     <t>Target Cluster</t>
   </si>
   <si>
-    <t>p_max_ch</t>
-  </si>
-  <si>
-    <t>p_max_ds</t>
-  </si>
-  <si>
     <t>v01</t>
   </si>
   <si>
@@ -149,6 +128,27 @@
   </si>
   <si>
     <t>CC03_03</t>
+  </si>
+  <si>
+    <t>p_max_ch (kW)</t>
+  </si>
+  <si>
+    <t>p_max_ds (kW)</t>
+  </si>
+  <si>
+    <t>cu_p_ch_max (kW)</t>
+  </si>
+  <si>
+    <t>cu_p_ds_max (kW)</t>
+  </si>
+  <si>
+    <t>LB (kW)</t>
+  </si>
+  <si>
+    <t>UB (kW)</t>
+  </si>
+  <si>
+    <t>Price (per/kWh)</t>
   </si>
 </sst>
 </file>
@@ -549,59 +549,59 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>11</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>18</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -623,31 +623,31 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD7"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -659,9 +659,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -673,9 +673,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -696,30 +696,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -731,9 +733,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>11</v>
@@ -745,9 +747,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -769,27 +771,27 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44569.291666261583</v>
       </c>
@@ -800,7 +802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44569.333332870367</v>
       </c>
@@ -811,7 +813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44569.374999479172</v>
       </c>
@@ -822,7 +824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44569.416666087956</v>
       </c>
@@ -833,7 +835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44569.458332696762</v>
       </c>
@@ -844,7 +846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44569.5</v>
       </c>
@@ -866,27 +868,27 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44569.291666261583</v>
       </c>
@@ -897,7 +899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44569.333332870367</v>
       </c>
@@ -908,7 +910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44569.374999479172</v>
       </c>
@@ -919,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44569.416666087956</v>
       </c>
@@ -930,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44569.458332696762</v>
       </c>
@@ -941,7 +943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44569.5</v>
       </c>
@@ -963,27 +965,27 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44569.291666261583</v>
       </c>
@@ -994,7 +996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44569.333332870367</v>
       </c>
@@ -1005,7 +1007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44569.374999479172</v>
       </c>
@@ -1016,7 +1018,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44569.416666087956</v>
       </c>
@@ -1027,7 +1029,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44569.458332696762</v>
       </c>
@@ -1038,7 +1040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44569.5</v>
       </c>
@@ -1059,29 +1061,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1089,45 +1089,45 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B2" s="5">
         <v>55</v>
@@ -1166,9 +1166,9 @@
         <v>44569.423611111109</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5">
         <v>55</v>
@@ -1207,9 +1207,9 @@
         <v>44569.378472222219</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5">
         <v>55</v>
@@ -1248,9 +1248,9 @@
         <v>44569.423611111109</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5">
         <v>55</v>
@@ -1289,9 +1289,9 @@
         <v>44569.496527777781</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5">
         <v>55</v>
@@ -1330,9 +1330,9 @@
         <v>44569.465277777781</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5">
         <v>55</v>
@@ -1371,9 +1371,9 @@
         <v>44569.486111111109</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5">
         <v>55</v>
@@ -1412,9 +1412,9 @@
         <v>44569.493055555555</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5">
         <v>55</v>
@@ -1453,9 +1453,9 @@
         <v>44569.479166666664</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5">
         <v>55</v>
@@ -1510,23 +1510,24 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44569.291666261583</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44569.333332870367</v>
       </c>
@@ -1542,7 +1543,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44569.374999479172</v>
       </c>
@@ -1550,7 +1551,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44569.416666087956</v>
       </c>
@@ -1558,7 +1559,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44569.458332696762</v>
       </c>
@@ -1566,7 +1567,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44569.5</v>
       </c>

--- a/src/tutorials/simulations/inputs/example_03.xlsx
+++ b/src/tutorials/simulations/inputs/example_03.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egu\SpyderProjects\_datafev\datafev\src\tutorials\simulations\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egu\SpyderProjects\datafev_github\datafev\src\tutorials\simulations\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cluster1" sheetId="9" r:id="rId1"/>
@@ -1061,7 +1061,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1435,7 +1437,7 @@
         <v>44569.479166666664</v>
       </c>
       <c r="H9" s="5">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
@@ -1447,7 +1449,7 @@
         <v>44569.340277777781</v>
       </c>
       <c r="L9" s="5">
-        <v>0.31</v>
+        <v>0.4</v>
       </c>
       <c r="M9" s="6">
         <v>44569.479166666664</v>
@@ -1509,7 +1511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/src/tutorials/simulations/inputs/example_03.xlsx
+++ b/src/tutorials/simulations/inputs/example_03.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cluster1" sheetId="9" r:id="rId1"/>
@@ -552,12 +552,12 @@
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -571,7 +571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -626,12 +626,12 @@
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -645,7 +645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -659,7 +659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -673,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -700,12 +700,12 @@
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -719,7 +719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -747,7 +747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -774,13 +774,13 @@
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -791,7 +791,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44569.291666261583</v>
       </c>
@@ -802,7 +802,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44569.333332870367</v>
       </c>
@@ -813,7 +813,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44569.374999479172</v>
       </c>
@@ -824,7 +824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44569.416666087956</v>
       </c>
@@ -835,7 +835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44569.458332696762</v>
       </c>
@@ -846,7 +846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44569.5</v>
       </c>
@@ -871,13 +871,13 @@
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -888,7 +888,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44569.291666261583</v>
       </c>
@@ -899,7 +899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44569.333332870367</v>
       </c>
@@ -910,7 +910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44569.374999479172</v>
       </c>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44569.416666087956</v>
       </c>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44569.458332696762</v>
       </c>
@@ -943,7 +943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44569.5</v>
       </c>
@@ -968,13 +968,13 @@
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -985,7 +985,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44569.291666261583</v>
       </c>
@@ -996,7 +996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44569.333332870367</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44569.374999479172</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44569.416666087956</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44569.458332696762</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44569.5</v>
       </c>
@@ -1061,29 +1061,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>21</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>44569.423611111109</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>22</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>44569.378472222219</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>23</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>44569.423611111109</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>44569.496527777781</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>44569.465277777781</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>44569.486111111109</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>44569.493055555555</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>44569.479166666664</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
@@ -1509,19 +1509,19 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>44569.291666261583</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>44569.333332870367</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>44569.374999479172</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>44569.416666087956</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>44569.458332696762</v>
       </c>
@@ -1569,11 +1569,19 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>44569.5</v>
       </c>
       <c r="B7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>44569.541666666664</v>
+      </c>
+      <c r="B8">
         <v>0.3</v>
       </c>
     </row>
